--- a/dat/src/dat1src.xlsx
+++ b/dat/src/dat1src.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9732" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,15 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>电磁铁电流$I_{\rm H}$/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谐振电流$I_{\rm P}$/\upmu A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t>谐振频率$f_0$/GHz</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>谐振电流$I$/\upmu A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>信源频率$f$/GHz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,6 +69,18 @@
   </si>
   <si>
     <t>工作电流$I$/mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谐振电流$I/\upmu$A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁铁电流$I_{H}$/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谐振电流$I_{P}/\upmu$A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +176,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1100,7 +1100,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>谐振电流$I$/\upmu A</c:v>
+                  <c:v>谐振电流$I/\upmu$A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1822,7 +1822,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>谐振电流$I_{\rm P}$/\upmu A</c:v>
+                  <c:v>谐振电流$I_{P}/\upmu$A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2273,60 +2273,6 @@
                 <c:pt idx="5">
                   <c:v>0.96299999999999997</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.242</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3560000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4059999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.502</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.601</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.714</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.7909999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.825</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.1259999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.327</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.58</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.8479999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.9860000000000002</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2353,60 +2299,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>381</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>428</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6409,21 +6301,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6772,29 +6664,359 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A2:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>417</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>414</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="B4">
+        <v>417</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D4">
+        <v>414</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>418</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>410</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="B6">
+        <v>418</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D6">
+        <v>409</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>419</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>410</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="F7">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="B8">
+        <v>420</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D8">
+        <v>417</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="F8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>421</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>427</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="F9">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B10">
+        <v>422</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D10">
+        <v>420</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="F10">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>424</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>366</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="F11">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="B12">
+        <v>425</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D12">
+        <v>302</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="F12">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>423</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>213</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F13">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B14">
+        <v>422</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <v>112</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="F14">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>420</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="F15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="B16">
+        <v>418</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="F16">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>13</v>
       </c>
@@ -6804,8 +7026,17 @@
       <c r="C2" s="2">
         <v>8990</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>7.508</v>
+      </c>
+      <c r="F2" s="2">
+        <v>9078.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>12.5</v>
       </c>
@@ -6815,8 +7046,17 @@
       <c r="C3" s="2">
         <v>9007</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="E3">
+        <v>7.149</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>12</v>
       </c>
@@ -6826,8 +7066,17 @@
       <c r="C4" s="2">
         <v>9027.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>6.6120000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>11.5</v>
       </c>
@@ -6838,7 +7087,7 @@
         <v>9049.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>11</v>
       </c>
@@ -6849,7 +7098,7 @@
         <v>9078.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>10.5</v>
       </c>
@@ -6860,7 +7109,7 @@
         <v>9119</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>10</v>
       </c>
@@ -6879,49 +7128,100 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>9.1029999999999998</v>
       </c>
       <c r="B2" s="2">
         <v>91.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="D2" s="2">
+        <v>80</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8.8989999999999991</v>
+      </c>
+      <c r="F2" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>9.2010000000000005</v>
       </c>
       <c r="B3" s="2">
         <v>85.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>85</v>
+      </c>
+      <c r="E3" s="3">
+        <v>8.8550000000000004</v>
+      </c>
+      <c r="F3" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>9.1509999999999998</v>
       </c>
       <c r="B4" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>8.9489999999999998</v>
+      </c>
+      <c r="D4" s="2">
+        <v>70.8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>9.0500000000000007</v>
       </c>
@@ -6929,7 +7229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>9</v>
       </c>
@@ -6937,7 +7237,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>8.9489999999999998</v>
       </c>
@@ -6945,7 +7245,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>8.8989999999999991</v>
       </c>
@@ -6953,7 +7253,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8.8550000000000004</v>
       </c>
@@ -6961,149 +7261,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8.8000000000000007</v>
       </c>
       <c r="B10" s="2">
         <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>9.0079999999999991</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>9.0150000000000006</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>9.0220000000000002</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>9.0229999999999997</v>
-      </c>
-      <c r="B6" s="2">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>9.0250000000000004</v>
-      </c>
-      <c r="B7" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>9.0259999999999998</v>
-      </c>
-      <c r="B8" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>9.0259999999999998</v>
-      </c>
-      <c r="B9" s="2">
-        <v>65.900000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9.0280000000000005</v>
-      </c>
-      <c r="B10" s="2">
-        <v>28.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9.0289999999999999</v>
-      </c>
-      <c r="B11" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="B12" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>9.0340000000000007</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>9.0389999999999997</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>9.0449999999999999</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -7115,221 +7278,180 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D8" sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2.4000000000000021E-2</v>
-      </c>
-      <c r="B2">
-        <v>75.2</v>
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.4</v>
       </c>
       <c r="C2" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+      <c r="D2" s="2">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>9.0079999999999991</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C3" s="3">
         <v>9.0280000000000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="B3">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="D3" s="2">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>9.0150000000000006</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9.0289999999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>9.0220000000000002</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>9.0229999999999997</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.0340000000000007</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>9.0250000000000004</v>
+      </c>
+      <c r="B7" s="2">
+        <v>54</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9.0389999999999997</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>9.0259999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="B4">
-        <v>76</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B8" s="2">
+        <v>88</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9.0449999999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+      <c r="B9" s="2">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9.0280000000000005</v>
+      </c>
+      <c r="B10" s="2">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9.0289999999999999</v>
+      </c>
+      <c r="B11" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>9.0299999999999994</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="B5">
-        <v>75.2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>9.0280000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.421</v>
-      </c>
-      <c r="B6">
-        <v>75.2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>9.0299999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.5070000000000001</v>
-      </c>
-      <c r="B7">
-        <v>72.3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>9.0269999999999992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.5310000000000001</v>
-      </c>
-      <c r="B8">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="C8" s="3">
-        <v>9.0259999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.5620000000000001</v>
-      </c>
-      <c r="B9">
-        <v>48</v>
-      </c>
-      <c r="C9" s="3">
-        <v>9.0310000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.579</v>
-      </c>
-      <c r="B10">
-        <v>39</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9.032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.5960000000000001</v>
-      </c>
-      <c r="B11">
-        <v>41.2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>9.0259999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1.6139999999999999</v>
-      </c>
-      <c r="B12">
-        <v>39.6</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9.0269999999999992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.6619999999999999</v>
-      </c>
-      <c r="B13">
-        <v>41.3</v>
-      </c>
-      <c r="C13" s="3">
-        <v>9.0259999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1.679</v>
-      </c>
-      <c r="B14">
-        <v>43.8</v>
-      </c>
-      <c r="C14" s="3">
-        <v>9.0259999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1.698</v>
-      </c>
-      <c r="B15">
-        <v>46</v>
-      </c>
-      <c r="C15" s="3">
-        <v>9.0289999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1.716</v>
-      </c>
-      <c r="B16">
-        <v>57.8</v>
-      </c>
-      <c r="C16" s="3">
-        <v>9.0289999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1.7629999999999999</v>
-      </c>
-      <c r="B17">
-        <v>72.3</v>
-      </c>
-      <c r="C17" s="3">
-        <v>9.0289999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1.802</v>
-      </c>
-      <c r="B18">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="C18" s="3">
-        <v>9.0259999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2.089</v>
-      </c>
-      <c r="B19">
-        <v>75</v>
-      </c>
-      <c r="C19" s="3">
-        <v>9.0299999999999994</v>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>9.0340000000000007</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9.0389999999999997</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>9.0449999999999999</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -7341,211 +7463,509 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F10" sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.4000000000000021E-2</v>
+      </c>
+      <c r="B2">
+        <v>75.2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>9.0280000000000005</v>
+      </c>
+      <c r="D2">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="E2">
+        <v>41.2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="B3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+      <c r="D3">
+        <v>1.6139999999999999</v>
+      </c>
+      <c r="E3">
+        <v>39.6</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9.0269999999999992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="B4">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="D4">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="E4">
+        <v>41.3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="B5">
+        <v>75.2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9.0280000000000005</v>
+      </c>
+      <c r="D5">
+        <v>1.679</v>
+      </c>
+      <c r="E5">
+        <v>43.8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.421</v>
+      </c>
+      <c r="B6">
+        <v>75.2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="D6">
+        <v>1.698</v>
+      </c>
+      <c r="E6">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9.0289999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.5070000000000001</v>
+      </c>
+      <c r="B7">
+        <v>72.3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9.0269999999999992</v>
+      </c>
+      <c r="D7">
+        <v>1.716</v>
+      </c>
+      <c r="E7">
+        <v>57.8</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9.0289999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.5310000000000001</v>
+      </c>
+      <c r="B8">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+      <c r="D8">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="E8">
+        <v>72.3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9.0289999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9.0310000000000006</v>
+      </c>
+      <c r="D9">
+        <v>1.802</v>
+      </c>
+      <c r="E9">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.579</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9.032</v>
+      </c>
+      <c r="D10">
+        <v>2.089</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="B11">
+        <v>41.2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.6139999999999999</v>
+      </c>
+      <c r="B12">
+        <v>39.6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9.0269999999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="B13">
+        <v>41.3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.679</v>
+      </c>
+      <c r="B14">
+        <v>43.8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.698</v>
+      </c>
+      <c r="B15">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9.0289999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.716</v>
+      </c>
+      <c r="B16">
+        <v>57.8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>9.0289999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="B17">
+        <v>72.3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>9.0289999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.802</v>
+      </c>
+      <c r="B18">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2.089</v>
+      </c>
+      <c r="B19">
+        <v>75</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2.4E-2</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="D2">
+        <v>213</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.502</v>
+      </c>
+      <c r="F2">
+        <v>296</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="H2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.123</v>
       </c>
       <c r="B3">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>1.242</v>
+      </c>
+      <c r="D3">
+        <v>246</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.601</v>
+      </c>
+      <c r="F3">
+        <v>314</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="H3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.255</v>
       </c>
       <c r="B4">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="D4">
+        <v>259</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="F4">
+        <v>324</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.327</v>
+      </c>
+      <c r="H4">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.495</v>
       </c>
       <c r="B5">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="D5">
+        <v>268</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.714</v>
+      </c>
+      <c r="F5">
+        <v>334</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.58</v>
+      </c>
+      <c r="H5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.82799999999999996</v>
       </c>
       <c r="B6">
         <v>165</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="D6">
+        <v>277</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="F6">
+        <v>348</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="H6">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.96299999999999997</v>
       </c>
       <c r="B7">
         <v>192</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1.07</v>
-      </c>
-      <c r="B8">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1.242</v>
-      </c>
-      <c r="B9">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1.3049999999999999</v>
-      </c>
-      <c r="B10">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>1.3560000000000001</v>
-      </c>
-      <c r="B11">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>1.4059999999999999</v>
-      </c>
-      <c r="B12">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="C7" s="3">
         <v>1.45</v>
       </c>
-      <c r="B13">
+      <c r="D7">
         <v>286</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>1.502</v>
-      </c>
-      <c r="B14">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>1.601</v>
-      </c>
-      <c r="B15">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>1.6559999999999999</v>
-      </c>
-      <c r="B16">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>1.714</v>
-      </c>
-      <c r="B17">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>1.7909999999999999</v>
-      </c>
-      <c r="B18">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="E7" s="3">
         <v>1.825</v>
       </c>
-      <c r="B19">
+      <c r="F7">
         <v>353</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>1.99</v>
-      </c>
-      <c r="B20">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>2.1259999999999999</v>
-      </c>
-      <c r="B21">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>2.327</v>
-      </c>
-      <c r="B22">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>2.58</v>
-      </c>
-      <c r="B23">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="B24">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="G7" s="3">
         <v>2.9860000000000002</v>
       </c>
-      <c r="B25">
+      <c r="H7">
         <v>493</v>
       </c>
     </row>
